--- a/medicine/Enfance/Denise_Millet/Denise_Millet.xlsx
+++ b/medicine/Enfance/Denise_Millet/Denise_Millet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denise Millet, née Denise Rousseau le 15 mai 1933 à Paris et morte dans la même ville le 28 mars 2020[1], est une dessinatrice française qui travaillait avec Claude Millet.
-L'œuvre de Claude et Denise Millet s'étend sur plus de 40 ans, de 1976 à 2019, et comprend près de 200 ouvrages. On peut y ajouter les très nombreuses collaborations aux différents magazines du groupe Bayard presse[2]: Astrapi, J'aime lire, Les Belles Histoires, Okapi. Ils sont notamment les dessinateurs de la bande dessinée Pic et Pik, scénarisée par Stéphanie Janicot et publiée à partir de 1992 dans Astrapi. Ils ont aussi dessiné une BD biographique de Martin Luther King (1985), scénarisée par Benoît Marchon[3], plusieurs fois rééditée.
-Outre la littérature jeunesse, ils ont également travaillé pour la publicité, la communication et le cinéma. Leur affiche du film Je hais les acteurs a été nommée pour le César de la meilleure affiche en 1987[3].
-Denise Millet meurt le 28 mars 2020, victime de l'épidémie de Covid-19[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denise Millet, née Denise Rousseau le 15 mai 1933 à Paris et morte dans la même ville le 28 mars 2020, est une dessinatrice française qui travaillait avec Claude Millet.
+L'œuvre de Claude et Denise Millet s'étend sur plus de 40 ans, de 1976 à 2019, et comprend près de 200 ouvrages. On peut y ajouter les très nombreuses collaborations aux différents magazines du groupe Bayard presse: Astrapi, J'aime lire, Les Belles Histoires, Okapi. Ils sont notamment les dessinateurs de la bande dessinée Pic et Pik, scénarisée par Stéphanie Janicot et publiée à partir de 1992 dans Astrapi. Ils ont aussi dessiné une BD biographique de Martin Luther King (1985), scénarisée par Benoît Marchon, plusieurs fois rééditée.
+Outre la littérature jeunesse, ils ont également travaillé pour la publicité, la communication et le cinéma. Leur affiche du film Je hais les acteurs a été nommée pour le César de la meilleure affiche en 1987.
+Denise Millet meurt le 28 mars 2020, victime de l'épidémie de Covid-19.
 </t>
         </is>
       </c>
